--- a/Data/VD measurements feb_2021.xlsx
+++ b/Data/VD measurements feb_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinbulla/Dropbox/Science/DATA_collection/ruff_sperm/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D19C28-12B5-CD49-8BE7-77327194B021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD187B-F6DD-0E47-B952-87F0F1BFEAAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22600" windowHeight="12840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22600" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="14" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3459" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3459" uniqueCount="145">
   <si>
     <t>Bird_ID</t>
   </si>
@@ -479,6 +479,9 @@
   <si>
     <t>Snap_206</t>
   </si>
+  <si>
+    <t>Snap_259</t>
+  </si>
 </sst>
 </file>
 
@@ -849,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J521"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3802,7 +3805,7 @@
         <v>32</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="F122" s="4">
         <v>1</v>
@@ -3828,7 +3831,7 @@
         <v>32</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
@@ -3854,7 +3857,7 @@
         <v>32</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="F124" s="4">
         <v>1</v>
@@ -3880,7 +3883,7 @@
         <v>32</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -14095,6 +14098,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -28456,7 +28460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
